--- a/Driver List - lspci.xlsx
+++ b/Driver List - lspci.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christa_lee\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0105DD35-F67A-4E56-9093-B9EF280A5ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE19665-AE92-4FE4-AF0A-DD9EFFBEC36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{A7ED4D37-274D-4F93-8C00-ADFA32CD904E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="152">
   <si>
     <t xml:space="preserve">add on /on board </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -441,10 +441,6 @@
     <t>Linux_DRM_1.14.0_4.tar.gz</t>
   </si>
   <si>
-    <t>Ellintgton_V002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5.8-3.0.7.0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -599,14 +595,6 @@
   </si>
   <si>
     <t>XXV710</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> -E "A100"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> -E "A40"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1148,11 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E783A0BD-8926-4773-940C-CA31E64305B3}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.46484375" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -1217,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
@@ -1262,7 +1249,7 @@
         <v>25</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -1307,7 +1294,7 @@
         <v>25</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -1352,7 +1339,7 @@
         <v>25</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
@@ -1397,7 +1384,7 @@
         <v>32</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
@@ -1442,7 +1429,7 @@
         <v>32</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
@@ -1487,7 +1474,7 @@
         <v>32</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
@@ -1532,10 +1519,10 @@
         <v>32</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -1574,11 +1561,9 @@
       <c r="N9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1617,11 +1602,9 @@
       <c r="N10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1660,11 +1643,9 @@
       <c r="N11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1703,9 +1684,7 @@
       <c r="N12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O12" s="7" t="s">
-        <v>143</v>
-      </c>
+      <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
@@ -1747,7 +1726,7 @@
         <v>44</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
@@ -1779,7 +1758,7 @@
         <v>20.04</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>23</v>
@@ -1792,7 +1771,7 @@
         <v>50</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
@@ -1824,7 +1803,7 @@
         <v>20.04</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>23</v>
@@ -1837,7 +1816,7 @@
         <v>50</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
@@ -1869,7 +1848,7 @@
         <v>20.04</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>23</v>
@@ -1882,7 +1861,7 @@
         <v>50</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
@@ -1914,7 +1893,7 @@
         <v>9.1</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>23</v>
@@ -1927,10 +1906,10 @@
         <v>50</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
@@ -1957,7 +1936,7 @@
         <v>2022</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>23</v>
@@ -1969,11 +1948,9 @@
       <c r="N18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
@@ -2000,7 +1977,7 @@
         <v>2022</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>23</v>
@@ -2012,9 +1989,7 @@
       <c r="N19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>146</v>
-      </c>
+      <c r="O19" s="7"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
@@ -2145,7 +2120,7 @@
         <v>9670</v>
       </c>
     </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>14</v>
       </c>
@@ -2184,9 +2159,7 @@
       <c r="N23" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="O23" s="17">
-        <v>9670</v>
-      </c>
+      <c r="O23" s="17"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
@@ -2228,10 +2201,10 @@
         <v>75</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>70</v>
       </c>
@@ -2358,10 +2331,10 @@
         <v>75</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>70</v>
       </c>
@@ -2444,7 +2417,7 @@
         <v>75</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
@@ -2487,10 +2460,10 @@
         <v>75</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>70</v>
       </c>
@@ -2573,7 +2546,7 @@
         <v>75</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.45">
@@ -2616,10 +2589,10 @@
         <v>75</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
@@ -2702,7 +2675,7 @@
         <v>75</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.45">
@@ -2745,10 +2718,10 @@
         <v>75</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>70</v>
       </c>
@@ -2833,7 +2806,7 @@
         <v>102</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.45">
@@ -2844,7 +2817,7 @@
         <v>15</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>17</v>
@@ -2865,20 +2838,20 @@
         <v>22.04</v>
       </c>
       <c r="J39" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>23</v>
       </c>
       <c r="L39" s="7"/>
       <c r="M39" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N39" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="N39" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="O39" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.45">
@@ -2889,7 +2862,7 @@
         <v>15</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>17</v>
@@ -2910,20 +2883,20 @@
         <v>22.04</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>23</v>
       </c>
       <c r="L40" s="7"/>
       <c r="M40" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N40" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="N40" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="O40" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.45">
@@ -2934,7 +2907,7 @@
         <v>15</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>17</v>
@@ -2955,20 +2928,20 @@
         <v>22.04</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="7"/>
       <c r="M41" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N41" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="N41" s="17" t="s">
-        <v>106</v>
-      </c>
       <c r="O41" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.45">
@@ -2979,7 +2952,7 @@
         <v>15</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>17</v>
@@ -3010,10 +2983,10 @@
         <v>31</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.45">
@@ -3024,7 +2997,7 @@
         <v>15</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>17</v>
@@ -3058,7 +3031,7 @@
         <v>32</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.45">
@@ -3069,7 +3042,7 @@
         <v>15</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>17</v>
@@ -3103,7 +3076,7 @@
         <v>32</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.45">
@@ -3114,7 +3087,7 @@
         <v>15</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>17</v>
@@ -3148,10 +3121,10 @@
         <v>32</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>14</v>
       </c>
@@ -3159,7 +3132,7 @@
         <v>15</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>17</v>
@@ -3190,9 +3163,9 @@
       <c r="N46" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O46" s="24"/>
-    </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="O46" s="7"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
         <v>14</v>
       </c>
@@ -3200,7 +3173,7 @@
         <v>15</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>17</v>
@@ -3231,9 +3204,9 @@
       <c r="N47" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O47" s="24"/>
-    </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="O47" s="7"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
         <v>14</v>
       </c>
@@ -3241,7 +3214,7 @@
         <v>15</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>17</v>
@@ -3272,9 +3245,9 @@
       <c r="N48" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O48" s="24"/>
-    </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="O48" s="7"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
         <v>14</v>
       </c>
@@ -3282,7 +3255,7 @@
         <v>15</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>17</v>
@@ -3313,7 +3286,7 @@
       <c r="N49" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O49" s="24"/>
+      <c r="O49" s="7"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
@@ -3323,7 +3296,7 @@
         <v>15</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>40</v>
@@ -3342,20 +3315,20 @@
         <v>22.04</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>23</v>
       </c>
       <c r="L50" s="7"/>
       <c r="M50" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N50" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="N50" s="17" t="s">
-        <v>110</v>
-      </c>
       <c r="O50" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.45">
@@ -3366,7 +3339,7 @@
         <v>15</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>17</v>
@@ -3387,7 +3360,7 @@
         <v>22.04</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>23</v>
@@ -3397,10 +3370,10 @@
         <v>49</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.45">
@@ -3411,7 +3384,7 @@
         <v>15</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>17</v>
@@ -3432,7 +3405,7 @@
         <v>22.04</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>23</v>
@@ -3442,10 +3415,10 @@
         <v>49</v>
       </c>
       <c r="N52" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.45">
@@ -3456,7 +3429,7 @@
         <v>15</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>17</v>
@@ -3477,7 +3450,7 @@
         <v>22.04</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>23</v>
@@ -3487,10 +3460,10 @@
         <v>49</v>
       </c>
       <c r="N53" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.45">
@@ -3501,7 +3474,7 @@
         <v>15</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>17</v>
@@ -3532,13 +3505,13 @@
         <v>49</v>
       </c>
       <c r="N54" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
         <v>14</v>
       </c>
@@ -3546,7 +3519,7 @@
         <v>15</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>17</v>
@@ -3575,11 +3548,11 @@
         <v>49</v>
       </c>
       <c r="N55" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="O55" s="24"/>
-    </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+      <c r="O55" s="7"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
         <v>14</v>
       </c>
@@ -3587,7 +3560,7 @@
         <v>15</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>17</v>
@@ -3616,9 +3589,9 @@
         <v>49</v>
       </c>
       <c r="N56" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="O56" s="24"/>
+        <v>111</v>
+      </c>
+      <c r="O56" s="7"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
@@ -3628,7 +3601,7 @@
         <v>15</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>57</v>
@@ -3647,17 +3620,17 @@
         <v>22.04</v>
       </c>
       <c r="J57" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K57" s="6" t="s">
         <v>23</v>
       </c>
       <c r="L57" s="7"/>
       <c r="M57" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N57" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="N57" s="20" t="s">
-        <v>115</v>
       </c>
       <c r="O57" s="17">
         <v>9670</v>
@@ -3671,7 +3644,7 @@
         <v>15</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>57</v>
@@ -3690,17 +3663,17 @@
         <v>22.04</v>
       </c>
       <c r="J58" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K58" s="6" t="s">
         <v>23</v>
       </c>
       <c r="L58" s="7"/>
       <c r="M58" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N58" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O58" s="17">
         <v>9560</v>
@@ -3714,7 +3687,7 @@
         <v>15</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>57</v>
@@ -3749,7 +3722,7 @@
         <v>9670</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
         <v>14</v>
       </c>
@@ -3757,7 +3730,7 @@
         <v>15</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>57</v>
@@ -3788,7 +3761,7 @@
       <c r="N60" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="O60" s="24"/>
+      <c r="O60" s="17"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
@@ -3798,7 +3771,7 @@
         <v>15</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>40</v>
@@ -3830,10 +3803,10 @@
         <v>75</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
         <v>70</v>
       </c>
@@ -3841,7 +3814,7 @@
         <v>15</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>40</v>
@@ -3884,7 +3857,7 @@
         <v>15</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>40</v>
@@ -3912,13 +3885,13 @@
         <v>74</v>
       </c>
       <c r="M63" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N63" s="20" t="s">
         <v>73</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.45">
@@ -3929,7 +3902,7 @@
         <v>15</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>40</v>
@@ -3961,10 +3934,10 @@
         <v>75</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A65" s="5" t="s">
         <v>70</v>
       </c>
@@ -3972,7 +3945,7 @@
         <v>15</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>40</v>
@@ -4015,7 +3988,7 @@
         <v>15</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>40</v>
@@ -4047,7 +4020,7 @@
         <v>75</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.45">
@@ -4058,7 +4031,7 @@
         <v>15</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>40</v>
@@ -4090,10 +4063,10 @@
         <v>75</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
         <v>70</v>
       </c>
@@ -4101,7 +4074,7 @@
         <v>15</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>40</v>
@@ -4144,7 +4117,7 @@
         <v>15</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>40</v>
@@ -4176,7 +4149,7 @@
         <v>75</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.45">
@@ -4187,7 +4160,7 @@
         <v>15</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>40</v>
@@ -4219,10 +4192,10 @@
         <v>75</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
         <v>70</v>
       </c>
@@ -4230,7 +4203,7 @@
         <v>15</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>40</v>
@@ -4261,7 +4234,7 @@
         <v>92</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O71" s="24"/>
     </row>
@@ -4273,7 +4246,7 @@
         <v>15</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D72" s="13" t="s">
         <v>40</v>
@@ -4305,7 +4278,7 @@
         <v>75</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.45">
@@ -4316,7 +4289,7 @@
         <v>15</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D73" s="13" t="s">
         <v>94</v>
@@ -4348,10 +4321,10 @@
         <v>75</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
         <v>70</v>
       </c>
@@ -4359,7 +4332,7 @@
         <v>15</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>94</v>
@@ -4402,7 +4375,7 @@
         <v>15</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>94</v>
@@ -4421,7 +4394,7 @@
         <v>22.04</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K75" s="16" t="s">
         <v>23</v>
@@ -4433,10 +4406,10 @@
         <v>101</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.45">
@@ -4444,10 +4417,10 @@
         <v>14</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>17</v>
@@ -4471,17 +4444,17 @@
         <v>48</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L76" s="7"/>
       <c r="M76" s="7" t="s">
         <v>49</v>
       </c>
       <c r="N76" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P76" s="22"/>
     </row>
@@ -4490,10 +4463,10 @@
         <v>14</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>17</v>
@@ -4502,10 +4475,10 @@
         <v>45</v>
       </c>
       <c r="F77" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>29</v>
@@ -4517,14 +4490,14 @@
         <v>48</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L77" s="7"/>
       <c r="M77" s="7" t="s">
         <v>49</v>
       </c>
       <c r="N77" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O77" s="7" t="s">
         <v>17</v>
@@ -4536,10 +4509,10 @@
         <v>14</v>
       </c>
       <c r="B78" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>17</v>
@@ -4551,7 +4524,7 @@
         <v>52</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>29</v>
@@ -4563,14 +4536,14 @@
         <v>48</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L78" s="7"/>
       <c r="M78" s="7" t="s">
         <v>49</v>
       </c>
       <c r="N78" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O78" s="7" t="s">
         <v>17</v>
@@ -4582,10 +4555,10 @@
         <v>14</v>
       </c>
       <c r="B79" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>17</v>
@@ -4603,23 +4576,23 @@
         <v>21</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L79" s="22"/>
       <c r="M79" s="7" t="s">
         <v>49</v>
       </c>
       <c r="N79" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P79" s="22"/>
     </row>
@@ -4628,10 +4601,10 @@
         <v>14</v>
       </c>
       <c r="B80" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>17</v>
@@ -4640,29 +4613,29 @@
         <v>45</v>
       </c>
       <c r="F80" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G80" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L80" s="7"/>
       <c r="M80" s="7" t="s">
         <v>49</v>
       </c>
       <c r="N80" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O80" s="7" t="s">
         <v>17</v>
@@ -4674,10 +4647,10 @@
         <v>14</v>
       </c>
       <c r="B81" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>17</v>
@@ -4689,26 +4662,26 @@
         <v>52</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J81" s="6" t="s">
         <v>48</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L81" s="7"/>
       <c r="M81" s="7" t="s">
         <v>49</v>
       </c>
       <c r="N81" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O81" s="7" t="s">
         <v>17</v>
@@ -4720,10 +4693,10 @@
         <v>14</v>
       </c>
       <c r="B82" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>17</v>
@@ -4732,10 +4705,10 @@
         <v>18</v>
       </c>
       <c r="F82" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G82" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>29</v>
@@ -4744,20 +4717,20 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L82" s="7"/>
       <c r="M82" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N82" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="N82" s="17" t="s">
-        <v>133</v>
-      </c>
       <c r="O82" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P82" s="22"/>
     </row>
@@ -4766,10 +4739,10 @@
         <v>14</v>
       </c>
       <c r="B83" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>17</v>
@@ -4778,7 +4751,7 @@
         <v>18</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>27</v>
@@ -4790,20 +4763,20 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L83" s="7"/>
       <c r="M83" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N83" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="N83" s="17" t="s">
-        <v>133</v>
-      </c>
       <c r="O83" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P83" s="22"/>
     </row>
@@ -4812,10 +4785,10 @@
         <v>14</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>17</v>
@@ -4824,10 +4797,10 @@
         <v>18</v>
       </c>
       <c r="F84" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G84" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>29</v>
@@ -4836,20 +4809,20 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L84" s="7"/>
       <c r="M84" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N84" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="N84" s="17" t="s">
-        <v>133</v>
-      </c>
       <c r="O84" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P84" s="22"/>
     </row>
@@ -4858,10 +4831,10 @@
         <v>14</v>
       </c>
       <c r="B85" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>17</v>
@@ -4870,10 +4843,10 @@
         <v>18</v>
       </c>
       <c r="F85" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G85" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>29</v>
@@ -4882,20 +4855,20 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L85" s="7"/>
       <c r="M85" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N85" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="N85" s="17" t="s">
-        <v>133</v>
-      </c>
       <c r="O85" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P85" s="22"/>
     </row>
@@ -4904,10 +4877,10 @@
         <v>14</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>17</v>
@@ -4916,32 +4889,32 @@
         <v>18</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L86" s="7"/>
       <c r="M86" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N86" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P86" s="22"/>
     </row>
@@ -4950,10 +4923,10 @@
         <v>14</v>
       </c>
       <c r="B87" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C87" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>17</v>
@@ -4962,7 +4935,7 @@
         <v>18</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>27</v>
@@ -4971,23 +4944,23 @@
         <v>21</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L87" s="7"/>
       <c r="M87" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N87" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P87" s="22"/>
     </row>
@@ -4996,10 +4969,10 @@
         <v>14</v>
       </c>
       <c r="B88" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>17</v>
@@ -5008,32 +4981,32 @@
         <v>18</v>
       </c>
       <c r="F88" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G88" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L88" s="7"/>
       <c r="M88" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N88" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P88" s="22"/>
     </row>
@@ -5042,10 +5015,10 @@
         <v>14</v>
       </c>
       <c r="B89" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>17</v>
@@ -5054,32 +5027,32 @@
         <v>18</v>
       </c>
       <c r="F89" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G89" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L89" s="7"/>
       <c r="M89" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N89" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P89" s="22"/>
     </row>
@@ -5088,38 +5061,38 @@
         <v>14</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J90" s="6"/>
       <c r="K90" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
       <c r="N90" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P90" s="22"/>
     </row>
@@ -5128,20 +5101,20 @@
         <v>14</v>
       </c>
       <c r="B91" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>29</v>
@@ -5151,15 +5124,15 @@
       </c>
       <c r="J91" s="6"/>
       <c r="K91" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
       <c r="N91" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P91" s="22"/>
     </row>
@@ -5168,10 +5141,10 @@
         <v>70</v>
       </c>
       <c r="B92" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D92" s="13" t="s">
         <v>94</v>
@@ -5189,11 +5162,11 @@
         <v>21</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J92" s="7"/>
       <c r="K92" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
@@ -5201,7 +5174,7 @@
         <v>75</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P92" s="21"/>
     </row>
@@ -5210,10 +5183,10 @@
         <v>70</v>
       </c>
       <c r="B93" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D93" s="13" t="s">
         <v>94</v>
@@ -5235,7 +5208,7 @@
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
@@ -5243,19 +5216,12 @@
         <v>75</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P93" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P93" xr:uid="{E783A0BD-8926-4773-940C-CA31E64305B3}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="RHEL"/>
-        <filter val="Ubuntu"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P93" xr:uid="{E783A0BD-8926-4773-940C-CA31E64305B3}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
